--- a/Code/Results/Cases/Case_3_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.78305917986195</v>
+        <v>13.40304848865214</v>
       </c>
       <c r="C2">
-        <v>7.013521831977708</v>
+        <v>10.15474694556152</v>
       </c>
       <c r="D2">
-        <v>4.982433451526731</v>
+        <v>5.63351269681556</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.11259475585832</v>
+        <v>27.43045188391782</v>
       </c>
       <c r="G2">
-        <v>2.096211355796669</v>
+        <v>3.653897818896758</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.33599929444125</v>
+        <v>9.359707765906203</v>
       </c>
       <c r="L2">
-        <v>8.093364024207359</v>
+        <v>10.75192066467547</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.66337038539602</v>
+        <v>19.57132153627876</v>
       </c>
       <c r="O2">
-        <v>16.39303107311834</v>
+        <v>24.58727811604889</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.80326578411695</v>
+        <v>13.15482871798562</v>
       </c>
       <c r="C3">
-        <v>7.078038207785793</v>
+        <v>10.17657629031988</v>
       </c>
       <c r="D3">
-        <v>4.854809888412327</v>
+        <v>5.58942561933071</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.74281972958556</v>
+        <v>27.44966090157199</v>
       </c>
       <c r="G3">
-        <v>2.100961643744226</v>
+        <v>3.655713877295331</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.67127589756555</v>
+        <v>9.187848480459458</v>
       </c>
       <c r="L3">
-        <v>7.808809833802127</v>
+        <v>10.72587913264129</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.86986655658484</v>
+        <v>19.63263712833589</v>
       </c>
       <c r="O3">
-        <v>16.32036415674303</v>
+        <v>24.64654678926594</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.20925972279163</v>
+        <v>13.00284722521983</v>
       </c>
       <c r="C4">
-        <v>7.11898324500053</v>
+        <v>10.19070000833979</v>
       </c>
       <c r="D4">
-        <v>4.774146617325528</v>
+        <v>5.561701747500542</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.52934501773549</v>
+        <v>27.46808610621336</v>
       </c>
       <c r="G4">
-        <v>2.103972197351832</v>
+        <v>3.656888737965986</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.24144167679035</v>
+        <v>9.082335904715855</v>
       </c>
       <c r="L4">
-        <v>7.633608284804659</v>
+        <v>10.71203730312298</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.99947125163975</v>
+        <v>19.67203517872317</v>
       </c>
       <c r="O4">
-        <v>16.28845771102747</v>
+        <v>24.6878315824622</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.96038030693808</v>
+        <v>12.94110751347257</v>
       </c>
       <c r="C5">
-        <v>7.136007746208928</v>
+        <v>10.19663723886631</v>
       </c>
       <c r="D5">
-        <v>4.740722953666278</v>
+        <v>5.550243408841828</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.4457885010555</v>
+        <v>27.47726069683019</v>
       </c>
       <c r="G5">
-        <v>2.105223116774536</v>
+        <v>3.657382585419827</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.0608622922383</v>
+        <v>9.039398974285429</v>
       </c>
       <c r="L5">
-        <v>7.562194885290681</v>
+        <v>10.70694091929049</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.05301642259455</v>
+        <v>19.68853155759626</v>
       </c>
       <c r="O5">
-        <v>16.27855450565369</v>
+        <v>24.70588401717098</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.91864662273151</v>
+        <v>12.93086995345059</v>
       </c>
       <c r="C6">
-        <v>7.138855251451311</v>
+        <v>10.19763410187626</v>
       </c>
       <c r="D6">
-        <v>4.735140398188165</v>
+        <v>5.548331172487697</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.43212201700315</v>
+        <v>27.47888471257365</v>
       </c>
       <c r="G6">
-        <v>2.105432300285698</v>
+        <v>3.657465500712636</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.03055130386672</v>
+        <v>9.032274679940297</v>
       </c>
       <c r="L6">
-        <v>7.550338896536317</v>
+        <v>10.7061276542787</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.06195229420737</v>
+        <v>19.69129746348526</v>
       </c>
       <c r="O6">
-        <v>16.27709432865964</v>
+        <v>24.70895575006997</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.20593066229823</v>
+        <v>13.00201368103877</v>
       </c>
       <c r="C7">
-        <v>7.119211465015198</v>
+        <v>10.19077934347943</v>
       </c>
       <c r="D7">
-        <v>4.773698056140374</v>
+        <v>5.561547861605812</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.52820420901789</v>
+        <v>27.46820309388101</v>
       </c>
       <c r="G7">
-        <v>2.103988969492369</v>
+        <v>3.656895337036248</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.23902820100391</v>
+        <v>9.081756520997653</v>
       </c>
       <c r="L7">
-        <v>7.632645105357569</v>
+        <v>10.71196636258738</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.0001903951391</v>
+        <v>19.67225586592306</v>
       </c>
       <c r="O7">
-        <v>16.28831173708973</v>
+        <v>24.68807007233613</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.4418452280401</v>
+        <v>13.31742545540147</v>
       </c>
       <c r="C8">
-        <v>7.03549323945477</v>
+        <v>10.16212451178198</v>
       </c>
       <c r="D8">
-        <v>4.938921639578794</v>
+        <v>5.618449564192366</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.9822980564197</v>
+        <v>27.43569844565939</v>
       </c>
       <c r="G8">
-        <v>2.09783007849106</v>
+        <v>3.654511613812591</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.11132194214389</v>
+        <v>9.300483066912001</v>
       </c>
       <c r="L8">
-        <v>7.995410355634282</v>
+        <v>10.74249844005322</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.73399971869754</v>
+        <v>19.59210071694698</v>
       </c>
       <c r="O8">
-        <v>16.36527992776604</v>
+        <v>24.60669714367386</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.76681090888954</v>
+        <v>13.93559563981092</v>
       </c>
       <c r="C9">
-        <v>6.881692376738832</v>
+        <v>10.11162368905159</v>
       </c>
       <c r="D9">
-        <v>5.243618289272215</v>
+        <v>5.724676601732117</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.9788926965486</v>
+        <v>27.42459073246336</v>
       </c>
       <c r="G9">
-        <v>2.086473772068317</v>
+        <v>3.650309446515106</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.64888593178155</v>
+        <v>9.72699900225985</v>
       </c>
       <c r="L9">
-        <v>8.698805130898407</v>
+        <v>10.81920745208661</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.23327149684488</v>
+        <v>19.44874223798072</v>
       </c>
       <c r="O9">
-        <v>16.62121200972825</v>
+        <v>24.48603680635857</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.30463534821354</v>
+        <v>14.38470523143157</v>
       </c>
       <c r="C10">
-        <v>6.774734112211823</v>
+        <v>10.07795541274686</v>
       </c>
       <c r="D10">
-        <v>5.454461539346946</v>
+        <v>5.799239756431397</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.77325187475618</v>
+        <v>27.44849895885827</v>
       </c>
       <c r="G10">
-        <v>2.078535518906411</v>
+        <v>3.647507067345872</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.67268685803815</v>
+        <v>10.03568020021216</v>
       </c>
       <c r="L10">
-        <v>9.205857793921801</v>
+        <v>10.88552252133271</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.87677871677398</v>
+        <v>19.35175938088674</v>
       </c>
       <c r="O10">
-        <v>16.87858488521784</v>
+        <v>24.42121480222752</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.96803884889821</v>
+        <v>14.58695048162941</v>
       </c>
       <c r="C11">
-        <v>6.727323703890939</v>
+        <v>10.06337726589893</v>
       </c>
       <c r="D11">
-        <v>5.547329441292243</v>
+        <v>5.832359869051167</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.14750303248223</v>
+        <v>27.4663172365292</v>
       </c>
       <c r="G11">
-        <v>2.075004124751859</v>
+        <v>3.646293434383687</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>14.11555980550427</v>
+        <v>10.17445120569772</v>
       </c>
       <c r="L11">
-        <v>9.433591478664077</v>
+        <v>10.91777784508146</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.71670491827637</v>
+        <v>19.30943256395931</v>
       </c>
       <c r="O11">
-        <v>17.01176725325548</v>
+        <v>24.39691824467169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.21411919994392</v>
+        <v>14.66316392241552</v>
       </c>
       <c r="C12">
-        <v>6.709544429539672</v>
+        <v>10.05796242817156</v>
       </c>
       <c r="D12">
-        <v>5.582041936291474</v>
+        <v>5.844782976121117</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.29102232996106</v>
+        <v>27.47405943378238</v>
       </c>
       <c r="G12">
-        <v>2.073677643624197</v>
+        <v>3.6458426133389</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>14.27999374290173</v>
+        <v>10.22671290635664</v>
       </c>
       <c r="L12">
-        <v>9.51935214330428</v>
+        <v>10.93028530347981</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.65635842527174</v>
+        <v>19.29366071749289</v>
       </c>
       <c r="O12">
-        <v>17.06459350063021</v>
+        <v>24.38846545230449</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.16134878473885</v>
+        <v>14.64676773620258</v>
       </c>
       <c r="C13">
-        <v>6.713365857540196</v>
+        <v>10.05912392201104</v>
       </c>
       <c r="D13">
-        <v>5.574586440691037</v>
+        <v>5.842112780223522</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.26003374515506</v>
+        <v>27.47234783441739</v>
       </c>
       <c r="G13">
-        <v>2.073962856982797</v>
+        <v>3.645939316993043</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.2447251971257</v>
+        <v>10.21547099455314</v>
       </c>
       <c r="L13">
-        <v>9.500904058525414</v>
+        <v>10.92757868380398</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.66934363753123</v>
+        <v>19.29704608182309</v>
       </c>
       <c r="O13">
-        <v>17.0531088081506</v>
+        <v>24.39025263631923</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.98838659015659</v>
+        <v>14.59322849627674</v>
       </c>
       <c r="C14">
-        <v>6.725857534388013</v>
+        <v>10.06292967056412</v>
       </c>
       <c r="D14">
-        <v>5.550194457711669</v>
+        <v>5.833384327503129</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.15927471466576</v>
+        <v>27.46693427772683</v>
       </c>
       <c r="G14">
-        <v>2.0748947823717</v>
+        <v>3.646256169836421</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.12915336347408</v>
+        <v>10.17875685701728</v>
       </c>
       <c r="L14">
-        <v>9.44065690889944</v>
+        <v>10.91880101058922</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.71173495261366</v>
+        <v>19.30812987266204</v>
       </c>
       <c r="O14">
-        <v>17.01606491358854</v>
+        <v>24.39620783504411</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.88177530457366</v>
+        <v>14.56038345658408</v>
       </c>
       <c r="C15">
-        <v>6.733531555917363</v>
+        <v>10.06527453783938</v>
       </c>
       <c r="D15">
-        <v>5.535194005567166</v>
+        <v>5.82802231888276</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.09778951648828</v>
+        <v>27.46374775113585</v>
       </c>
       <c r="G15">
-        <v>2.075466996472357</v>
+        <v>3.646451390304954</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.05793664952732</v>
+        <v>10.15622944188333</v>
       </c>
       <c r="L15">
-        <v>9.403690156269274</v>
+        <v>10.91346237666644</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.73773504821086</v>
+        <v>19.31495237102502</v>
       </c>
       <c r="O15">
-        <v>16.99368831820554</v>
+        <v>24.39995298438459</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.26055811507033</v>
+        <v>14.37143999259275</v>
       </c>
       <c r="C16">
-        <v>6.777857125479085</v>
+        <v>10.07892293147174</v>
       </c>
       <c r="D16">
-        <v>5.448329654587684</v>
+        <v>5.797058868636726</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.74904832530184</v>
+        <v>27.44747391193988</v>
       </c>
       <c r="G16">
-        <v>2.078767850901568</v>
+        <v>3.647587608623745</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.64328519948257</v>
+        <v>10.02657360243156</v>
       </c>
       <c r="L16">
-        <v>9.19091092382258</v>
+        <v>10.88345597373222</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.88727945530115</v>
+        <v>19.35456148079368</v>
       </c>
       <c r="O16">
-        <v>16.87021184989339</v>
+        <v>24.42290721650119</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.87024445607479</v>
+        <v>14.25494665021858</v>
       </c>
       <c r="C17">
-        <v>6.805364857303499</v>
+        <v>10.08748437427322</v>
       </c>
       <c r="D17">
-        <v>5.394248701206786</v>
+        <v>5.777856369488048</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.53836899394463</v>
+        <v>27.43926633753497</v>
       </c>
       <c r="G17">
-        <v>2.080812769658449</v>
+        <v>3.648300281811875</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.38306365602117</v>
+        <v>9.946574545917107</v>
       </c>
       <c r="L17">
-        <v>9.059584832826767</v>
+        <v>10.86557787118115</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.97953527535182</v>
+        <v>19.37931831436364</v>
       </c>
       <c r="O17">
-        <v>16.79864378592454</v>
+        <v>24.43831949509327</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.64233880578965</v>
+        <v>14.18775348871223</v>
       </c>
       <c r="C18">
-        <v>6.821304117738681</v>
+        <v>10.09247815666603</v>
       </c>
       <c r="D18">
-        <v>5.362856957406077</v>
+        <v>5.766736616239563</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.41840865448172</v>
+        <v>27.43519926796891</v>
       </c>
       <c r="G18">
-        <v>2.081996503547327</v>
+        <v>3.648715953978212</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.2312381925323</v>
+        <v>9.90040879806104</v>
       </c>
       <c r="L18">
-        <v>8.983776739109061</v>
+        <v>10.85549187735156</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.03279771871494</v>
+        <v>19.39372645284874</v>
       </c>
       <c r="O18">
-        <v>16.75899100864235</v>
+        <v>24.44767279669155</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.56458671660749</v>
+        <v>14.16497293260931</v>
       </c>
       <c r="C19">
-        <v>6.826721217009145</v>
+        <v>10.09418091171098</v>
       </c>
       <c r="D19">
-        <v>5.352179700346869</v>
+        <v>5.762958899287489</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.37800286591043</v>
+        <v>27.43393459477689</v>
       </c>
       <c r="G19">
-        <v>2.08239861261807</v>
+        <v>3.648857684263124</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.1794625873776</v>
+        <v>9.884753280613266</v>
       </c>
       <c r="L19">
-        <v>8.958064446546054</v>
+        <v>10.85211098414707</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.05086663141225</v>
+        <v>19.39863380470976</v>
       </c>
       <c r="O19">
-        <v>16.74582238683323</v>
+        <v>24.45092353290284</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.91214622693511</v>
+        <v>14.26736772243932</v>
       </c>
       <c r="C20">
-        <v>6.802424483499923</v>
+        <v>10.0865658080932</v>
       </c>
       <c r="D20">
-        <v>5.40003541732466</v>
+        <v>5.779908297039267</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.56067064024144</v>
+        <v>27.44007241365029</v>
       </c>
       <c r="G20">
-        <v>2.080594307944536</v>
+        <v>3.648223820561594</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.41098741481957</v>
+        <v>9.955106731050222</v>
       </c>
       <c r="L20">
-        <v>9.073593392527854</v>
+        <v>10.86746068606417</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.96969407735134</v>
+        <v>19.37666545970133</v>
       </c>
       <c r="O20">
-        <v>16.80610534093674</v>
+        <v>24.43662825688364</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.03932865336656</v>
+        <v>14.60896496769313</v>
       </c>
       <c r="C21">
-        <v>6.722183744593628</v>
+        <v>10.06180896818193</v>
       </c>
       <c r="D21">
-        <v>5.557371434123937</v>
+        <v>5.835951339129705</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.18882170185622</v>
+        <v>27.46849740431871</v>
       </c>
       <c r="G21">
-        <v>2.074620766389969</v>
+        <v>3.64616286519432</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>14.16318827858613</v>
+        <v>10.18954889200009</v>
       </c>
       <c r="L21">
-        <v>9.458366304607853</v>
+        <v>10.92137133189515</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.69927652943152</v>
+        <v>19.30486734523511</v>
       </c>
       <c r="O21">
-        <v>17.02688006322473</v>
+        <v>24.39443834498963</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.7461014250963</v>
+        <v>14.83001496757477</v>
       </c>
       <c r="C22">
-        <v>6.670753614135112</v>
+        <v>10.04624417686929</v>
       </c>
       <c r="D22">
-        <v>5.657543668367071</v>
+        <v>5.87188474742976</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.60981459694624</v>
+        <v>27.49287097575355</v>
       </c>
       <c r="G22">
-        <v>2.070779202166749</v>
+        <v>3.644866925449532</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.63573169937522</v>
+        <v>10.34107093506111</v>
       </c>
       <c r="L22">
-        <v>9.707037523349909</v>
+        <v>10.95830963094233</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.52410062381216</v>
+        <v>19.25943709088216</v>
       </c>
       <c r="O22">
-        <v>17.1851501000562</v>
+        <v>24.3712239065874</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.37159821387897</v>
+        <v>14.7122623122536</v>
       </c>
       <c r="C23">
-        <v>6.698111982462753</v>
+        <v>10.05449526652247</v>
       </c>
       <c r="D23">
-        <v>5.6043278855802</v>
+        <v>5.852771161934752</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.38418317777016</v>
+        <v>27.47933338197285</v>
       </c>
       <c r="G23">
-        <v>2.072824037983202</v>
+        <v>3.645553939129994</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.3852642966551</v>
+        <v>10.26037229542625</v>
       </c>
       <c r="L23">
-        <v>9.574589198807464</v>
+        <v>10.9384414916237</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.61746370999373</v>
+        <v>19.28354775790563</v>
       </c>
       <c r="O23">
-        <v>17.0993746666117</v>
+        <v>24.38321466496112</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.89321337127115</v>
+        <v>14.26175283376709</v>
       </c>
       <c r="C24">
-        <v>6.80375343770529</v>
+        <v>10.0869808684991</v>
       </c>
       <c r="D24">
-        <v>5.397420175758196</v>
+        <v>5.778980869418217</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.55058444226826</v>
+        <v>27.43970595676584</v>
       </c>
       <c r="G24">
-        <v>2.080693049257614</v>
+        <v>3.648258370165567</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.39837000128369</v>
+        <v>9.951249865818095</v>
       </c>
       <c r="L24">
-        <v>9.06726107446152</v>
+        <v>10.86660886572118</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.9741425849435</v>
+        <v>19.37786426974693</v>
       </c>
       <c r="O24">
-        <v>16.80272732854597</v>
+        <v>24.43739133141372</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.16801767797961</v>
+        <v>13.76891292759486</v>
       </c>
       <c r="C25">
-        <v>6.922218102746086</v>
+        <v>10.12467983683945</v>
       </c>
       <c r="D25">
-        <v>5.163393259159599</v>
+        <v>5.696535413416036</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.69816562086586</v>
+        <v>27.42195923822763</v>
       </c>
       <c r="G25">
-        <v>2.089472187989805</v>
+        <v>3.651395989547849</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.25153080244613</v>
+        <v>9.612212010965418</v>
       </c>
       <c r="L25">
-        <v>8.509913081415458</v>
+        <v>10.79668296756993</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.36661200462347</v>
+        <v>19.48605329493356</v>
       </c>
       <c r="O25">
-        <v>16.54016583416674</v>
+        <v>24.51450119554295</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_64/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_64/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.40304848865214</v>
+        <v>14.7830591798619</v>
       </c>
       <c r="C2">
-        <v>10.15474694556152</v>
+        <v>7.013521831977979</v>
       </c>
       <c r="D2">
-        <v>5.63351269681556</v>
+        <v>4.982433451526826</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>27.43045188391782</v>
+        <v>20.11259475585842</v>
       </c>
       <c r="G2">
-        <v>3.653897818896758</v>
+        <v>2.096211355796803</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9.359707765906203</v>
+        <v>11.33599929444121</v>
       </c>
       <c r="L2">
-        <v>10.75192066467547</v>
+        <v>8.093364024207396</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.57132153627876</v>
+        <v>12.66337038539609</v>
       </c>
       <c r="O2">
-        <v>24.58727811604889</v>
+        <v>16.39303107311846</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.15482871798562</v>
+        <v>13.80326578411694</v>
       </c>
       <c r="C3">
-        <v>10.17657629031988</v>
+        <v>7.078038207785524</v>
       </c>
       <c r="D3">
-        <v>5.58942561933071</v>
+        <v>4.854809888412262</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>27.44966090157199</v>
+        <v>19.74281972958549</v>
       </c>
       <c r="G3">
-        <v>3.655713877295331</v>
+        <v>2.100961643744225</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>9.187848480459458</v>
+        <v>10.67127589756558</v>
       </c>
       <c r="L3">
-        <v>10.72587913264129</v>
+        <v>7.808809833802101</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.63263712833589</v>
+        <v>12.86986655658484</v>
       </c>
       <c r="O3">
-        <v>24.64654678926594</v>
+        <v>16.32036415674294</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.00284722521983</v>
+        <v>13.20925972279163</v>
       </c>
       <c r="C4">
-        <v>10.19070000833979</v>
+        <v>7.118983245000529</v>
       </c>
       <c r="D4">
-        <v>5.561701747500542</v>
+        <v>4.774146617325287</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>27.46808610621336</v>
+        <v>19.52934501773555</v>
       </c>
       <c r="G4">
-        <v>3.656888737965986</v>
+        <v>2.103972197351831</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.082335904715855</v>
+        <v>10.2414416767904</v>
       </c>
       <c r="L4">
-        <v>10.71203730312298</v>
+        <v>7.6336082848047</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.67203517872317</v>
+        <v>12.99947125163975</v>
       </c>
       <c r="O4">
-        <v>24.6878315824622</v>
+        <v>16.28845771102743</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.94110751347257</v>
+        <v>12.96038030693809</v>
       </c>
       <c r="C5">
-        <v>10.19663723886631</v>
+        <v>7.136007746208926</v>
       </c>
       <c r="D5">
-        <v>5.550243408841828</v>
+        <v>4.740722953666108</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.47726069683019</v>
+        <v>19.44578850105543</v>
       </c>
       <c r="G5">
-        <v>3.657382585419827</v>
+        <v>2.105223116774136</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.039398974285429</v>
+        <v>10.06086229223831</v>
       </c>
       <c r="L5">
-        <v>10.70694091929049</v>
+        <v>7.562194885290663</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.68853155759626</v>
+        <v>13.05301642259448</v>
       </c>
       <c r="O5">
-        <v>24.70588401717098</v>
+        <v>16.27855450565357</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.93086995345059</v>
+        <v>12.91864662273151</v>
       </c>
       <c r="C6">
-        <v>10.19763410187626</v>
+        <v>7.138855251451445</v>
       </c>
       <c r="D6">
-        <v>5.548331172487697</v>
+        <v>4.73514039818828</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>27.47888471257365</v>
+        <v>19.4321220170031</v>
       </c>
       <c r="G6">
-        <v>3.657465500712636</v>
+        <v>2.105432300285698</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.032274679940297</v>
+        <v>10.03055130386672</v>
       </c>
       <c r="L6">
-        <v>10.7061276542787</v>
+        <v>7.55033889653628</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.69129746348526</v>
+        <v>13.06195229420737</v>
       </c>
       <c r="O6">
-        <v>24.70895575006997</v>
+        <v>16.27709432865964</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.00201368103877</v>
+        <v>13.20593066229823</v>
       </c>
       <c r="C7">
-        <v>10.19077934347943</v>
+        <v>7.119211465015199</v>
       </c>
       <c r="D7">
-        <v>5.561547861605812</v>
+        <v>4.773698056140264</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>27.46820309388101</v>
+        <v>19.52820420901784</v>
       </c>
       <c r="G7">
-        <v>3.656895337036248</v>
+        <v>2.103988969492369</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.081756520997653</v>
+        <v>10.239028201004</v>
       </c>
       <c r="L7">
-        <v>10.71196636258738</v>
+        <v>7.632645105357584</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.67225586592306</v>
+        <v>13.0001903951391</v>
       </c>
       <c r="O7">
-        <v>24.68807007233613</v>
+        <v>16.28831173708966</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.31742545540147</v>
+        <v>14.44184522804009</v>
       </c>
       <c r="C8">
-        <v>10.16212451178198</v>
+        <v>7.035493239455039</v>
       </c>
       <c r="D8">
-        <v>5.618449564192366</v>
+        <v>4.938921639578442</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>27.43569844565939</v>
+        <v>19.98229805641967</v>
       </c>
       <c r="G8">
-        <v>3.654511613812591</v>
+        <v>2.097830078491193</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>9.300483066912001</v>
+        <v>11.11132194214392</v>
       </c>
       <c r="L8">
-        <v>10.74249844005322</v>
+        <v>7.995410355634252</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.59210071694698</v>
+        <v>12.73399971869741</v>
       </c>
       <c r="O8">
-        <v>24.60669714367386</v>
+        <v>16.36527992776587</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.93559563981092</v>
+        <v>16.76681090888959</v>
       </c>
       <c r="C9">
-        <v>10.11162368905159</v>
+        <v>6.88169237673883</v>
       </c>
       <c r="D9">
-        <v>5.724676601732117</v>
+        <v>5.243618289272377</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>27.42459073246336</v>
+        <v>20.97889269654851</v>
       </c>
       <c r="G9">
-        <v>3.650309446515106</v>
+        <v>2.086473772068184</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.72699900225985</v>
+        <v>12.64888593178159</v>
       </c>
       <c r="L9">
-        <v>10.81920745208661</v>
+        <v>8.698805130898425</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.44874223798072</v>
+        <v>12.23327149684481</v>
       </c>
       <c r="O9">
-        <v>24.48603680635857</v>
+        <v>16.62121200972817</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.38470523143157</v>
+        <v>18.30463534821359</v>
       </c>
       <c r="C10">
-        <v>10.07795541274686</v>
+        <v>6.774734112211693</v>
       </c>
       <c r="D10">
-        <v>5.799239756431397</v>
+        <v>5.454461539346941</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.44849895885827</v>
+        <v>21.77325187475619</v>
       </c>
       <c r="G10">
-        <v>3.647507067345872</v>
+        <v>2.078535518906547</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.03568020021216</v>
+        <v>13.6726868580382</v>
       </c>
       <c r="L10">
-        <v>10.88552252133271</v>
+        <v>9.205857793921826</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.35175938088674</v>
+        <v>11.87677871677402</v>
       </c>
       <c r="O10">
-        <v>24.42121480222752</v>
+        <v>16.87858488521783</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.58695048162941</v>
+        <v>18.96803884889826</v>
       </c>
       <c r="C11">
-        <v>10.06337726589893</v>
+        <v>6.727323703890939</v>
       </c>
       <c r="D11">
-        <v>5.832359869051167</v>
+        <v>5.547329441292294</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>27.4663172365292</v>
+        <v>22.14750303248224</v>
       </c>
       <c r="G11">
-        <v>3.646293434383687</v>
+        <v>2.07500412475186</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>10.17445120569772</v>
+        <v>14.11555980550429</v>
       </c>
       <c r="L11">
-        <v>10.91777784508146</v>
+        <v>9.433591478664075</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.30943256395931</v>
+        <v>11.71670491827638</v>
       </c>
       <c r="O11">
-        <v>24.39691824467169</v>
+        <v>17.01176725325546</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.66316392241552</v>
+        <v>19.21411919994392</v>
       </c>
       <c r="C12">
-        <v>10.05796242817156</v>
+        <v>6.709544429539671</v>
       </c>
       <c r="D12">
-        <v>5.844782976121117</v>
+        <v>5.582041936291513</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.47405943378238</v>
+        <v>22.29102232996105</v>
       </c>
       <c r="G12">
-        <v>3.6458426133389</v>
+        <v>2.073677643624195</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>10.22671290635664</v>
+        <v>14.27999374290174</v>
       </c>
       <c r="L12">
-        <v>10.93028530347981</v>
+        <v>9.519352143304268</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.29366071749289</v>
+        <v>11.65635842527167</v>
       </c>
       <c r="O12">
-        <v>24.38846545230449</v>
+        <v>17.06459350063019</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.64676773620258</v>
+        <v>19.16134878473894</v>
       </c>
       <c r="C13">
-        <v>10.05912392201104</v>
+        <v>6.713365857540198</v>
       </c>
       <c r="D13">
-        <v>5.842112780223522</v>
+        <v>5.574586440691087</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.47234783441739</v>
+        <v>22.260033745155</v>
       </c>
       <c r="G13">
-        <v>3.645939316993043</v>
+        <v>2.073962856982797</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.21547099455314</v>
+        <v>14.24472519712579</v>
       </c>
       <c r="L13">
-        <v>10.92757868380398</v>
+        <v>9.500904058525443</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.29704608182309</v>
+        <v>11.6693436375312</v>
       </c>
       <c r="O13">
-        <v>24.39025263631923</v>
+        <v>17.05310880815053</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.59322849627674</v>
+        <v>18.98838659015661</v>
       </c>
       <c r="C14">
-        <v>10.06292967056412</v>
+        <v>6.725857534387876</v>
       </c>
       <c r="D14">
-        <v>5.833384327503129</v>
+        <v>5.550194457711774</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>27.46693427772683</v>
+        <v>22.15927471466567</v>
       </c>
       <c r="G14">
-        <v>3.646256169836421</v>
+        <v>2.074894782371434</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.17875685701728</v>
+        <v>14.12915336347406</v>
       </c>
       <c r="L14">
-        <v>10.91880101058922</v>
+        <v>9.440656908899445</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.30812987266204</v>
+        <v>11.71173495261359</v>
       </c>
       <c r="O14">
-        <v>24.39620783504411</v>
+        <v>17.0160649135885</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.56038345658408</v>
+        <v>18.88177530457358</v>
       </c>
       <c r="C15">
-        <v>10.06527453783938</v>
+        <v>6.733531555917494</v>
       </c>
       <c r="D15">
-        <v>5.82802231888276</v>
+        <v>5.535194005567128</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>27.46374775113585</v>
+        <v>22.09778951648839</v>
       </c>
       <c r="G15">
-        <v>3.646451390304954</v>
+        <v>2.07546699647249</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.15622944188333</v>
+        <v>14.05793664952724</v>
       </c>
       <c r="L15">
-        <v>10.91346237666644</v>
+        <v>9.403690156269255</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.31495237102502</v>
+        <v>11.73773504821092</v>
       </c>
       <c r="O15">
-        <v>24.39995298438459</v>
+        <v>16.99368831820566</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.37143999259275</v>
+        <v>18.26055811507028</v>
       </c>
       <c r="C16">
-        <v>10.07892293147174</v>
+        <v>6.777857125479484</v>
       </c>
       <c r="D16">
-        <v>5.797058868636726</v>
+        <v>5.448329654587685</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>27.44747391193988</v>
+        <v>21.74904832530176</v>
       </c>
       <c r="G16">
-        <v>3.647587608623745</v>
+        <v>2.078767850901567</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.02657360243156</v>
+        <v>13.64328519948259</v>
       </c>
       <c r="L16">
-        <v>10.88345597373222</v>
+        <v>9.190910923822583</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.35456148079368</v>
+        <v>11.88727945530111</v>
       </c>
       <c r="O16">
-        <v>24.42290721650119</v>
+        <v>16.87021184989332</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.25494665021858</v>
+        <v>17.87024445607481</v>
       </c>
       <c r="C17">
-        <v>10.08748437427322</v>
+        <v>6.805364857303095</v>
       </c>
       <c r="D17">
-        <v>5.777856369488048</v>
+        <v>5.394248701206792</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>27.43926633753497</v>
+        <v>21.53836899394467</v>
       </c>
       <c r="G17">
-        <v>3.648300281811875</v>
+        <v>2.08081276965845</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.946574545917107</v>
+        <v>13.38306365602114</v>
       </c>
       <c r="L17">
-        <v>10.86557787118115</v>
+        <v>9.059584832826701</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.37931831436364</v>
+        <v>11.97953527535182</v>
       </c>
       <c r="O17">
-        <v>24.43831949509327</v>
+        <v>16.79864378592458</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.18775348871223</v>
+        <v>17.64233880578963</v>
       </c>
       <c r="C18">
-        <v>10.09247815666603</v>
+        <v>6.821304117738945</v>
       </c>
       <c r="D18">
-        <v>5.766736616239563</v>
+        <v>5.362856957406094</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>27.43519926796891</v>
+        <v>21.41840865448167</v>
       </c>
       <c r="G18">
-        <v>3.648715953978212</v>
+        <v>2.081996503547327</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.90040879806104</v>
+        <v>13.2312381925323</v>
       </c>
       <c r="L18">
-        <v>10.85549187735156</v>
+        <v>8.98377673910908</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.39372645284874</v>
+        <v>12.03279771871497</v>
       </c>
       <c r="O18">
-        <v>24.44767279669155</v>
+        <v>16.75899100864235</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.16497293260931</v>
+        <v>17.56458671660758</v>
       </c>
       <c r="C19">
-        <v>10.09418091171098</v>
+        <v>6.826721217009142</v>
       </c>
       <c r="D19">
-        <v>5.762958899287489</v>
+        <v>5.352179700346925</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>27.43393459477689</v>
+        <v>21.37800286591028</v>
       </c>
       <c r="G19">
-        <v>3.648857684263124</v>
+        <v>2.082398612618205</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.884753280613266</v>
+        <v>13.17946258737765</v>
       </c>
       <c r="L19">
-        <v>10.85211098414707</v>
+        <v>8.958064446546029</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.39863380470976</v>
+        <v>12.05086663141208</v>
       </c>
       <c r="O19">
-        <v>24.45092353290284</v>
+        <v>16.74582238683305</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.26736772243932</v>
+        <v>17.91214622693511</v>
       </c>
       <c r="C20">
-        <v>10.0865658080932</v>
+        <v>6.802424483500189</v>
       </c>
       <c r="D20">
-        <v>5.779908297039267</v>
+        <v>5.400035417324587</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.44007241365029</v>
+        <v>21.56067064024156</v>
       </c>
       <c r="G20">
-        <v>3.648223820561594</v>
+        <v>2.080594307944668</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.955106731050222</v>
+        <v>13.41098741481957</v>
       </c>
       <c r="L20">
-        <v>10.86746068606417</v>
+        <v>9.07359339252783</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.37666545970133</v>
+        <v>11.96969407735144</v>
       </c>
       <c r="O20">
-        <v>24.43662825688364</v>
+        <v>16.80610534093683</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.60896496769313</v>
+        <v>19.03932865336661</v>
       </c>
       <c r="C21">
-        <v>10.06180896818193</v>
+        <v>6.722183744593492</v>
       </c>
       <c r="D21">
-        <v>5.835951339129705</v>
+        <v>5.557371434123937</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>27.46849740431871</v>
+        <v>22.18882170185616</v>
       </c>
       <c r="G21">
-        <v>3.64616286519432</v>
+        <v>2.074620766389834</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>10.18954889200009</v>
+        <v>14.16318827858614</v>
       </c>
       <c r="L21">
-        <v>10.92137133189515</v>
+        <v>9.458366304607885</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.30486734523511</v>
+        <v>11.69927652943146</v>
       </c>
       <c r="O21">
-        <v>24.39443834498963</v>
+        <v>17.02688006322466</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.83001496757477</v>
+        <v>19.7461014250963</v>
       </c>
       <c r="C22">
-        <v>10.04624417686929</v>
+        <v>6.670753614135115</v>
       </c>
       <c r="D22">
-        <v>5.87188474742976</v>
+        <v>5.657543668367075</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.49287097575355</v>
+        <v>22.60981459694621</v>
       </c>
       <c r="G22">
-        <v>3.644866925449532</v>
+        <v>2.070779202166617</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>10.34107093506111</v>
+        <v>14.63573169937522</v>
       </c>
       <c r="L22">
-        <v>10.95830963094233</v>
+        <v>9.707037523349895</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.25943709088216</v>
+        <v>11.52410062381215</v>
       </c>
       <c r="O22">
-        <v>24.3712239065874</v>
+        <v>17.18515010005618</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.7122623122536</v>
+        <v>19.37159821387894</v>
       </c>
       <c r="C23">
-        <v>10.05449526652247</v>
+        <v>6.698111982463019</v>
       </c>
       <c r="D23">
-        <v>5.852771161934752</v>
+        <v>5.6043278855802</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.47933338197285</v>
+        <v>22.38418317777018</v>
       </c>
       <c r="G23">
-        <v>3.645553939129994</v>
+        <v>2.072824037983468</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>10.26037229542625</v>
+        <v>14.38526429665509</v>
       </c>
       <c r="L23">
-        <v>10.9384414916237</v>
+        <v>9.57458919880745</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.28354775790563</v>
+        <v>11.61746370999377</v>
       </c>
       <c r="O23">
-        <v>24.38321466496112</v>
+        <v>17.09937466661172</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.26175283376709</v>
+        <v>17.89321337127114</v>
       </c>
       <c r="C24">
-        <v>10.0869808684991</v>
+        <v>6.803753437705419</v>
       </c>
       <c r="D24">
-        <v>5.778980869418217</v>
+        <v>5.39742017575827</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.43970595676584</v>
+        <v>21.55058444226815</v>
       </c>
       <c r="G24">
-        <v>3.648258370165567</v>
+        <v>2.080693049257611</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.951249865818095</v>
+        <v>13.3983700012837</v>
       </c>
       <c r="L24">
-        <v>10.86660886572118</v>
+        <v>9.067261074461511</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.37786426974693</v>
+        <v>11.97414258494343</v>
       </c>
       <c r="O24">
-        <v>24.43739133141372</v>
+        <v>16.80272732854592</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.76891292759486</v>
+        <v>16.16801767797966</v>
       </c>
       <c r="C25">
-        <v>10.12467983683945</v>
+        <v>6.922218102746087</v>
       </c>
       <c r="D25">
-        <v>5.696535413416036</v>
+        <v>5.163393259159433</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>27.42195923822763</v>
+        <v>20.69816562086574</v>
       </c>
       <c r="G25">
-        <v>3.651395989547849</v>
+        <v>2.089472187989803</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.612212010965418</v>
+        <v>12.25153080244619</v>
       </c>
       <c r="L25">
-        <v>10.79668296756993</v>
+        <v>8.509913081415487</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.48605329493356</v>
+        <v>12.36661200462334</v>
       </c>
       <c r="O25">
-        <v>24.51450119554295</v>
+        <v>16.54016583416657</v>
       </c>
     </row>
   </sheetData>
